--- a/orcamentos/Shopping Mueller Joinville 2_asdasd.xlsx
+++ b/orcamentos/Shopping Mueller Joinville 2_asdasd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\orcamentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE8D181-5CA1-4F42-9702-12F09E51AD99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{128DA7E4-3E91-4E9B-BB1D-5A97C804BFA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -690,7 +690,7 @@
         <v>192</v>
       </c>
       <c r="H2" s="1">
-        <v>834.52200000000005</v>
+        <v>834522</v>
       </c>
       <c r="I2">
         <v>0</v>

--- a/orcamentos/Shopping Mueller Joinville 2_asdasd.xlsx
+++ b/orcamentos/Shopping Mueller Joinville 2_asdasd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\orcamentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{128DA7E4-3E91-4E9B-BB1D-5A97C804BFA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A36E87C5-D629-460F-8A53-ACECD46F9F4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="34">
   <si>
     <t>id</t>
   </si>
@@ -455,7 +455,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
@@ -542,6 +542,32 @@
         <v>2</v>
       </c>
       <c r="J3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>38</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="J4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -628,11 +654,13 @@
   <sheetPr codeName="Planilha3"/>
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -690,7 +718,7 @@
         <v>192</v>
       </c>
       <c r="H2" s="1">
-        <v>834522</v>
+        <v>834.52200000000005</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -707,9 +735,11 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D57A584-7591-4878-9530-5854AA8DF859}">
   <sheetPr codeName="Planilha5"/>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -743,6 +773,134 @@
       </c>
       <c r="J1" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2">
+        <v>192</v>
+      </c>
+      <c r="H2">
+        <v>834.52200000000005</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3">
+        <v>192</v>
+      </c>
+      <c r="H3">
+        <v>834.52200000000005</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4">
+        <v>192</v>
+      </c>
+      <c r="H4">
+        <v>834.52200000000005</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5">
+        <v>192</v>
+      </c>
+      <c r="H5">
+        <v>834.52200000000005</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -753,52 +911,6 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A997D96-DD52-4F81-A619-671BC5BF348C}">
   <sheetPr codeName="Planilha6"/>
-  <dimension ref="A1:J1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C5A3A87-FF1D-4E0C-A4EE-80945F76771E}">
-  <sheetPr codeName="Planilha7"/>
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -842,6 +954,84 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2">
+        <v>192</v>
+      </c>
+      <c r="H2" s="1">
+        <v>834.52200000000005</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C5A3A87-FF1D-4E0C-A4EE-80945F76771E}">
+  <sheetPr codeName="Planilha7"/>
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>32</v>
       </c>
       <c r="C2">
@@ -866,6 +1056,102 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3">
+        <v>192</v>
+      </c>
+      <c r="H3">
+        <v>834.52200000000005</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4">
+        <v>192</v>
+      </c>
+      <c r="H4">
+        <v>834.52200000000005</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5">
+        <v>192</v>
+      </c>
+      <c r="H5">
+        <v>834.52200000000005</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
         <v>30</v>
       </c>
     </row>

--- a/orcamentos/Shopping Mueller Joinville 2_asdasd.xlsx
+++ b/orcamentos/Shopping Mueller Joinville 2_asdasd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\orcamentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A36E87C5-D629-460F-8A53-ACECD46F9F4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3352E36-D71E-48A6-BAA6-096F175E4656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="34">
   <si>
     <t>id</t>
   </si>
@@ -652,7 +652,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2787B949-035F-476D-AB38-D13F8B071F80}">
   <sheetPr codeName="Planilha3"/>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
@@ -703,7 +703,7 @@
         <v>33</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -724,6 +724,102 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3">
+        <v>192</v>
+      </c>
+      <c r="H3">
+        <v>834.52200000000005</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4">
+        <v>192</v>
+      </c>
+      <c r="H4">
+        <v>834.52200000000005</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5">
+        <v>192</v>
+      </c>
+      <c r="H5">
+        <v>834.52200000000005</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
         <v>30</v>
       </c>
     </row>
@@ -735,7 +831,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D57A584-7591-4878-9530-5854AA8DF859}">
   <sheetPr codeName="Planilha5"/>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -900,6 +996,38 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6">
+        <v>192</v>
+      </c>
+      <c r="H6">
+        <v>834.52200000000005</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
         <v>30</v>
       </c>
     </row>

--- a/orcamentos/Shopping Mueller Joinville 2_asdasd.xlsx
+++ b/orcamentos/Shopping Mueller Joinville 2_asdasd.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\orcamentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3352E36-D71E-48A6-BAA6-096F175E4656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA7E569-8E81-48DD-B347-29E54D7B1D8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="12456" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="geral" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="34">
   <si>
     <t>id</t>
   </si>
@@ -652,9 +652,9 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2787B949-035F-476D-AB38-D13F8B071F80}">
   <sheetPr codeName="Planilha3"/>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -695,134 +695,6 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2">
-        <v>5</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2">
-        <v>192</v>
-      </c>
-      <c r="H2" s="1">
-        <v>834.52200000000005</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3">
-        <v>192</v>
-      </c>
-      <c r="H3">
-        <v>834.52200000000005</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4">
-        <v>192</v>
-      </c>
-      <c r="H4">
-        <v>834.52200000000005</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5">
-        <v>192</v>
-      </c>
-      <c r="H5">
-        <v>834.52200000000005</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5" t="s">
-        <v>30</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -831,7 +703,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D57A584-7591-4878-9530-5854AA8DF859}">
   <sheetPr codeName="Planilha5"/>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -879,7 +751,7 @@
         <v>33</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -932,102 +804,6 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4">
-        <v>192</v>
-      </c>
-      <c r="H4">
-        <v>834.52200000000005</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5">
-        <v>192</v>
-      </c>
-      <c r="H5">
-        <v>834.52200000000005</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6">
-        <v>192</v>
-      </c>
-      <c r="H6">
-        <v>834.52200000000005</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1039,7 +815,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A997D96-DD52-4F81-A619-671BC5BF348C}">
   <sheetPr codeName="Planilha6"/>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1109,6 +885,326 @@
         <v>30</v>
       </c>
     </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3">
+        <v>192</v>
+      </c>
+      <c r="H3">
+        <v>834.52200000000005</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4">
+        <v>192</v>
+      </c>
+      <c r="H4">
+        <v>834.52200000000005</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5">
+        <v>192</v>
+      </c>
+      <c r="H5">
+        <v>834.52200000000005</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6">
+        <v>192</v>
+      </c>
+      <c r="H6">
+        <v>834.52200000000005</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7">
+        <v>192</v>
+      </c>
+      <c r="H7">
+        <v>834.52200000000005</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8">
+        <v>192</v>
+      </c>
+      <c r="H8">
+        <v>834.52200000000005</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9">
+        <v>192</v>
+      </c>
+      <c r="H9">
+        <v>834.52200000000005</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10">
+        <v>192</v>
+      </c>
+      <c r="H10">
+        <v>834.52200000000005</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11">
+        <v>192</v>
+      </c>
+      <c r="H11">
+        <v>834.52200000000005</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12">
+        <v>192</v>
+      </c>
+      <c r="H12">
+        <v>834.52200000000005</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1117,9 +1213,9 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C5A3A87-FF1D-4E0C-A4EE-80945F76771E}">
   <sheetPr codeName="Planilha7"/>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -1251,38 +1347,6 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5">
-        <v>192</v>
-      </c>
-      <c r="H5">
-        <v>834.52200000000005</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5" t="s">
-        <v>30</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/orcamentos/Shopping Mueller Joinville 2_asdasd.xlsx
+++ b/orcamentos/Shopping Mueller Joinville 2_asdasd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\orcamentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA7E569-8E81-48DD-B347-29E54D7B1D8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90742CBB-2596-42C0-B29A-A005080A7C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="12456" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="34">
   <si>
     <t>id</t>
   </si>
@@ -703,7 +703,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D57A584-7591-4878-9530-5854AA8DF859}">
   <sheetPr codeName="Planilha5"/>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -807,6 +807,130 @@
         <v>30</v>
       </c>
     </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4">
+        <v>224</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5">
+        <v>192</v>
+      </c>
+      <c r="H5">
+        <v>834.52200000000005</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -815,7 +939,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A997D96-DD52-4F81-A619-671BC5BF348C}">
   <sheetPr codeName="Planilha6"/>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -925,7 +1049,7 @@
         <v>33</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -989,7 +1113,7 @@
         <v>33</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1017,192 +1141,70 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7">
-        <v>192</v>
-      </c>
-      <c r="H7">
-        <v>834.52200000000005</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8">
-        <v>192</v>
-      </c>
-      <c r="H8">
-        <v>834.52200000000005</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9">
-        <v>192</v>
-      </c>
-      <c r="H9">
-        <v>834.52200000000005</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10">
-        <v>192</v>
-      </c>
-      <c r="H10">
-        <v>834.52200000000005</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11">
-        <v>192</v>
-      </c>
-      <c r="H11">
-        <v>834.52200000000005</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12">
-        <v>192</v>
-      </c>
-      <c r="H12">
-        <v>834.52200000000005</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12" t="s">
-        <v>30</v>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1213,7 +1215,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C5A3A87-FF1D-4E0C-A4EE-80945F76771E}">
   <sheetPr codeName="Planilha7"/>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1323,7 +1325,7 @@
         <v>33</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1345,6 +1347,36 @@
       </c>
       <c r="J4" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/orcamentos/Shopping Mueller Joinville 2_asdasd.xlsx
+++ b/orcamentos/Shopping Mueller Joinville 2_asdasd.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr codeName="EstaPastaDeTrabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\orcamentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90742CBB-2596-42C0-B29A-A005080A7C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2ABBE1B-0378-4811-A258-FC4B0E1B8F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="12456" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="geral" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="34">
   <si>
     <t>id</t>
   </si>
@@ -703,9 +703,9 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D57A584-7591-4878-9530-5854AA8DF859}">
   <sheetPr codeName="Planilha5"/>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -751,7 +751,7 @@
         <v>33</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -812,13 +812,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>31</v>
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
       </c>
       <c r="E4" t="s">
         <v>28</v>
@@ -827,108 +827,16 @@
         <v>29</v>
       </c>
       <c r="G4">
-        <v>224</v>
+        <v>192</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>834.52200000000005</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5">
-        <v>192</v>
-      </c>
-      <c r="H5">
-        <v>834.52200000000005</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -939,7 +847,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A997D96-DD52-4F81-A619-671BC5BF348C}">
   <sheetPr codeName="Planilha6"/>
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1137,76 +1045,6 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>19</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1215,9 +1053,9 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C5A3A87-FF1D-4E0C-A4EE-80945F76771E}">
   <sheetPr codeName="Planilha7"/>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -1290,13 +1128,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
       </c>
       <c r="E3" t="s">
         <v>28</v>
@@ -1305,10 +1143,10 @@
         <v>29</v>
       </c>
       <c r="G3">
-        <v>192</v>
+        <v>224</v>
       </c>
       <c r="H3">
-        <v>834.52200000000005</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1353,30 +1191,64 @@
       <c r="A5">
         <v>4</v>
       </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5">
+        <v>192</v>
+      </c>
+      <c r="H5">
+        <v>834.52200000000005</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6">
+        <v>192</v>
+      </c>
+      <c r="H6">
+        <v>834.52200000000005</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/orcamentos/Shopping Mueller Joinville 2_asdasd.xlsx
+++ b/orcamentos/Shopping Mueller Joinville 2_asdasd.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\orcamentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2ABBE1B-0378-4811-A258-FC4B0E1B8F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4244D6DF-308E-44DA-A886-AB0E298948AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="geral" sheetId="1" r:id="rId1"/>
@@ -21,17 +21,28 @@
     <sheet name="Oeste" sheetId="7" r:id="rId6"/>
     <sheet name="Centro" sheetId="6" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="35">
   <si>
     <t>id</t>
   </si>
@@ -133,6 +144,9 @@
   </si>
   <si>
     <t>GR01</t>
+  </si>
+  <si>
+    <t>Valor Total</t>
   </si>
 </sst>
 </file>
@@ -652,10 +666,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2787B949-035F-476D-AB38-D13F8B071F80}">
   <sheetPr codeName="Planilha3"/>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -663,7 +677,7 @@
     <col min="8" max="8" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -693,6 +707,9 @@
       </c>
       <c r="J1" t="s">
         <v>23</v>
+      </c>
+      <c r="K1" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -703,15 +720,15 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D57A584-7591-4878-9530-5854AA8DF859}">
   <sheetPr codeName="Planilha5"/>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -742,8 +759,11 @@
       <c r="J1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -774,8 +794,12 @@
       <c r="J2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K2">
+        <f>H2*C2</f>
+        <v>1669.0440000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -806,8 +830,12 @@
       <c r="J3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K3">
+        <f>H3*C3</f>
+        <v>1669.0440000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -815,7 +843,7 @@
         <v>33</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -829,7 +857,7 @@
       <c r="G4">
         <v>192</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="1">
         <v>834.52200000000005</v>
       </c>
       <c r="I4">
@@ -837,6 +865,10 @@
       </c>
       <c r="J4" t="s">
         <v>30</v>
+      </c>
+      <c r="K4">
+        <f>C4*H4</f>
+        <v>1669.0440000000001</v>
       </c>
     </row>
   </sheetData>
@@ -847,13 +879,15 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A997D96-DD52-4F81-A619-671BC5BF348C}">
   <sheetPr codeName="Planilha6"/>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -884,8 +918,11 @@
       <c r="J1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -916,8 +953,12 @@
       <c r="J2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K2">
+        <f>H2*C2</f>
+        <v>834.52200000000005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -948,8 +989,12 @@
       <c r="J3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K3">
+        <f t="shared" ref="K3:K6" si="0">H3*C3</f>
+        <v>1669.0440000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -957,7 +1002,7 @@
         <v>33</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -971,7 +1016,7 @@
       <c r="G4">
         <v>192</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="1">
         <v>834.52200000000005</v>
       </c>
       <c r="I4">
@@ -980,8 +1025,12 @@
       <c r="J4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K4">
+        <f>C4*H4</f>
+        <v>2503.5660000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1012,8 +1061,12 @@
       <c r="J5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>1669.0440000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1043,6 +1096,10 @@
       </c>
       <c r="J6" t="s">
         <v>30</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>834.52200000000005</v>
       </c>
     </row>
   </sheetData>
@@ -1053,13 +1110,15 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C5A3A87-FF1D-4E0C-A4EE-80945F76771E}">
   <sheetPr codeName="Planilha7"/>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -1090,8 +1149,11 @@
       <c r="J1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1099,7 +1161,7 @@
         <v>32</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
         <v>31</v>
@@ -1113,8 +1175,8 @@
       <c r="G2">
         <v>224</v>
       </c>
-      <c r="H2">
-        <v>0</v>
+      <c r="H2" s="1">
+        <v>989.274</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -1122,8 +1184,12 @@
       <c r="J2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K2">
+        <f>H2*C2</f>
+        <v>4946.37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1154,8 +1220,12 @@
       <c r="J3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K3">
+        <f t="shared" ref="K3:K6" si="0">H3*C3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1186,8 +1256,12 @@
       <c r="J4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>1669.0440000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1218,8 +1292,12 @@
       <c r="J5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>1669.0440000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1249,6 +1327,10 @@
       </c>
       <c r="J6" t="s">
         <v>30</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>834.52200000000005</v>
       </c>
     </row>
   </sheetData>

--- a/orcamentos/Shopping Mueller Joinville 2_asdasd.xlsx
+++ b/orcamentos/Shopping Mueller Joinville 2_asdasd.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\orcamentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4244D6DF-308E-44DA-A886-AB0E298948AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC43D422-1167-4B92-90A1-56127018749C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="geral" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="35">
   <si>
     <t>id</t>
   </si>
@@ -666,15 +666,16 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2787B949-035F-476D-AB38-D13F8B071F80}">
   <sheetPr codeName="Planilha3"/>
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -710,6 +711,330 @@
       </c>
       <c r="K1" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2">
+        <v>224</v>
+      </c>
+      <c r="H2" s="1">
+        <v>989.274</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2">
+        <f t="shared" ref="K2:K7" si="0">C2*H2</f>
+        <v>4946.37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3">
+        <v>224</v>
+      </c>
+      <c r="H3" s="1">
+        <v>989.274</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="0"/>
+        <v>989.274</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4">
+        <v>192</v>
+      </c>
+      <c r="H4">
+        <v>834.52200000000005</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>834.52200000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5">
+        <v>224</v>
+      </c>
+      <c r="H5">
+        <v>989.274</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>4946.37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6">
+        <v>224</v>
+      </c>
+      <c r="H6">
+        <v>989.274</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>4946.37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7">
+        <v>192</v>
+      </c>
+      <c r="H7">
+        <v>834.52200000000005</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>1669.0440000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8">
+        <v>192</v>
+      </c>
+      <c r="H8">
+        <v>834.52200000000005</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8">
+        <f>C8*H8</f>
+        <v>1669.0440000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9">
+        <v>224</v>
+      </c>
+      <c r="H9">
+        <v>989.274</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9">
+        <f>C9*H9</f>
+        <v>4946.37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10">
+        <v>224</v>
+      </c>
+      <c r="H10">
+        <v>989.274</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10">
+        <f>C10*H10</f>
+        <v>4946.37</v>
       </c>
     </row>
   </sheetData>
@@ -720,13 +1045,16 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D57A584-7591-4878-9530-5854AA8DF859}">
   <sheetPr codeName="Planilha5"/>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="10" max="10" width="61.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -868,6 +1196,222 @@
       </c>
       <c r="K4">
         <f>C4*H4</f>
+        <v>1669.0440000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5">
+        <v>224</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5">
+        <f t="shared" ref="K5:K10" si="0">C5*H5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6">
+        <v>192</v>
+      </c>
+      <c r="H6">
+        <v>834.52200000000005</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>1669.0440000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7">
+        <v>192</v>
+      </c>
+      <c r="H7">
+        <v>834.52200000000005</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>1669.0440000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8">
+        <v>192</v>
+      </c>
+      <c r="H8">
+        <v>834.52200000000005</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>1669.0440000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9">
+        <v>224</v>
+      </c>
+      <c r="H9">
+        <v>989.274</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>4946.37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10">
+        <v>192</v>
+      </c>
+      <c r="H10">
+        <v>834.52200000000005</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="0"/>
         <v>1669.0440000000001</v>
       </c>
     </row>
@@ -879,9 +1423,9 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A997D96-DD52-4F81-A619-671BC5BF348C}">
   <sheetPr codeName="Planilha6"/>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
@@ -1102,6 +1646,42 @@
         <v>834.52200000000005</v>
       </c>
     </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7">
+        <v>224</v>
+      </c>
+      <c r="H7">
+        <v>989.274</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7">
+        <f>C7*H7</f>
+        <v>4946.37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1110,7 +1690,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C5A3A87-FF1D-4E0C-A4EE-80945F76771E}">
   <sheetPr codeName="Planilha7"/>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K2" sqref="K2:K6"/>
@@ -1161,7 +1741,7 @@
         <v>32</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D2" t="s">
         <v>31</v>
@@ -1175,8 +1755,8 @@
       <c r="G2">
         <v>224</v>
       </c>
-      <c r="H2" s="1">
-        <v>989.274</v>
+      <c r="H2">
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -1185,8 +1765,8 @@
         <v>30</v>
       </c>
       <c r="K2">
-        <f>H2*C2</f>
-        <v>4946.37</v>
+        <f t="shared" ref="K2:K5" si="0">H2*C2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -1194,13 +1774,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>31</v>
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
       </c>
       <c r="E3" t="s">
         <v>28</v>
@@ -1209,10 +1789,10 @@
         <v>29</v>
       </c>
       <c r="G3">
-        <v>224</v>
+        <v>192</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>834.52200000000005</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1221,8 +1801,8 @@
         <v>30</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K6" si="0">H3*C3</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1669.0440000000001</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -1269,7 +1849,7 @@
         <v>33</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1293,42 +1873,6 @@
         <v>30</v>
       </c>
       <c r="K5">
-        <f t="shared" si="0"/>
-        <v>1669.0440000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6">
-        <v>192</v>
-      </c>
-      <c r="H6">
-        <v>834.52200000000005</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6">
         <f t="shared" si="0"/>
         <v>834.52200000000005</v>
       </c>

--- a/orcamentos/Shopping Mueller Joinville 2_asdasd.xlsx
+++ b/orcamentos/Shopping Mueller Joinville 2_asdasd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\orcamentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC43D422-1167-4B92-90A1-56127018749C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{392C542E-0EFB-4E6A-9F23-D4DBD3523F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="35">
   <si>
     <t>id</t>
   </si>
@@ -666,7 +666,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2787B949-035F-476D-AB38-D13F8B071F80}">
   <sheetPr codeName="Planilha3"/>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
@@ -745,7 +745,7 @@
         <v>30</v>
       </c>
       <c r="K2">
-        <f t="shared" ref="K2:K7" si="0">C2*H2</f>
+        <f t="shared" ref="K2:K5" si="0">C2*H2</f>
         <v>4946.37</v>
       </c>
     </row>
@@ -757,7 +757,7 @@
         <v>32</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
         <v>31</v>
@@ -771,7 +771,7 @@
       <c r="G3">
         <v>224</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3">
         <v>989.274</v>
       </c>
       <c r="I3">
@@ -782,7 +782,7 @@
       </c>
       <c r="K3">
         <f t="shared" si="0"/>
-        <v>989.274</v>
+        <v>4946.37</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -790,13 +790,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
       </c>
       <c r="E4" t="s">
         <v>28</v>
@@ -805,10 +805,10 @@
         <v>29</v>
       </c>
       <c r="G4">
-        <v>192</v>
+        <v>224</v>
       </c>
       <c r="H4">
-        <v>834.52200000000005</v>
+        <v>989.274</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -818,7 +818,7 @@
       </c>
       <c r="K4">
         <f t="shared" si="0"/>
-        <v>834.52200000000005</v>
+        <v>4946.37</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -826,13 +826,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C5">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>31</v>
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
       </c>
       <c r="E5" t="s">
         <v>28</v>
@@ -841,10 +841,10 @@
         <v>29</v>
       </c>
       <c r="G5">
-        <v>224</v>
+        <v>192</v>
       </c>
       <c r="H5">
-        <v>989.274</v>
+        <v>834.52200000000005</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -854,7 +854,7 @@
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
-        <v>4946.37</v>
+        <v>1669.0440000000001</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -889,7 +889,7 @@
         <v>30</v>
       </c>
       <c r="K6">
-        <f t="shared" si="0"/>
+        <f>C6*H6</f>
         <v>4946.37</v>
       </c>
     </row>
@@ -898,13 +898,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>31</v>
       </c>
       <c r="E7" t="s">
         <v>28</v>
@@ -913,10 +913,10 @@
         <v>29</v>
       </c>
       <c r="G7">
-        <v>192</v>
+        <v>224</v>
       </c>
       <c r="H7">
-        <v>834.52200000000005</v>
+        <v>989.274</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -925,115 +925,7 @@
         <v>30</v>
       </c>
       <c r="K7">
-        <f t="shared" si="0"/>
-        <v>1669.0440000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8">
-        <v>192</v>
-      </c>
-      <c r="H8">
-        <v>834.52200000000005</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8" t="s">
-        <v>30</v>
-      </c>
-      <c r="K8">
-        <f>C8*H8</f>
-        <v>1669.0440000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9">
-        <v>224</v>
-      </c>
-      <c r="H9">
-        <v>989.274</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9" t="s">
-        <v>30</v>
-      </c>
-      <c r="K9">
-        <f>C9*H9</f>
-        <v>4946.37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10">
-        <v>224</v>
-      </c>
-      <c r="H10">
-        <v>989.274</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10" t="s">
-        <v>30</v>
-      </c>
-      <c r="K10">
-        <f>C10*H10</f>
+        <f>C7*H7</f>
         <v>4946.37</v>
       </c>
     </row>

--- a/orcamentos/Shopping Mueller Joinville 2_asdasd.xlsx
+++ b/orcamentos/Shopping Mueller Joinville 2_asdasd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\orcamentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{392C542E-0EFB-4E6A-9F23-D4DBD3523F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53EBC492-7159-49F2-AD65-760C89566F68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="41">
   <si>
     <t>id</t>
   </si>
@@ -147,6 +147,24 @@
   </si>
   <si>
     <t>Valor Total</t>
+  </si>
+  <si>
+    <t>31/01/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elizangela Wesolowski </t>
+  </si>
+  <si>
+    <t>PT02</t>
+  </si>
+  <si>
+    <t>4,5</t>
+  </si>
+  <si>
+    <t>3,15</t>
+  </si>
+  <si>
+    <t>Papai Noel com sino e estrela produzido em estrutura metálica e mangueira luminosa</t>
   </si>
 </sst>
 </file>
@@ -469,7 +487,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
@@ -582,6 +600,35 @@
         <v>3</v>
       </c>
       <c r="J4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>38</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1096,35 +1143,35 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="F5" t="s">
         <v>29</v>
       </c>
       <c r="G5">
-        <v>224</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
+        <v>848</v>
+      </c>
+      <c r="H5" s="1">
+        <v>4150.9260000000004</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K5">
-        <f t="shared" ref="K5:K10" si="0">C5*H5</f>
-        <v>0</v>
+        <f>C5*H5</f>
+        <v>12452.778000000002</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -1159,7 +1206,7 @@
         <v>30</v>
       </c>
       <c r="K6">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="K5:K10" si="0">C6*H6</f>
         <v>1669.0440000000001</v>
       </c>
     </row>
@@ -1633,7 +1680,7 @@
         <v>32</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
         <v>31</v>
@@ -1647,8 +1694,8 @@
       <c r="G2">
         <v>224</v>
       </c>
-      <c r="H2">
-        <v>0</v>
+      <c r="H2" s="1">
+        <v>989.274</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -1657,8 +1704,8 @@
         <v>30</v>
       </c>
       <c r="K2">
-        <f t="shared" ref="K2:K5" si="0">H2*C2</f>
-        <v>0</v>
+        <f>C2*H2</f>
+        <v>2967.8220000000001</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -1693,7 +1740,7 @@
         <v>30</v>
       </c>
       <c r="K3">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="K3:K5" si="0">H3*C3</f>
         <v>1669.0440000000001</v>
       </c>
     </row>

--- a/orcamentos/Shopping Mueller Joinville 2_asdasd.xlsx
+++ b/orcamentos/Shopping Mueller Joinville 2_asdasd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\orcamentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53EBC492-7159-49F2-AD65-760C89566F68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43314432-6EC5-4D77-991F-8872A58B9C0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="41">
   <si>
     <t>id</t>
   </si>
@@ -487,7 +487,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
@@ -629,6 +629,35 @@
         <v>36</v>
       </c>
       <c r="J5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -786,13 +815,13 @@
         <v>989.274</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="s">
         <v>30</v>
       </c>
       <c r="K2">
-        <f t="shared" ref="K2:K5" si="0">C2*H2</f>
+        <f>C2*H2</f>
         <v>4946.37</v>
       </c>
     </row>
@@ -828,7 +857,7 @@
         <v>30</v>
       </c>
       <c r="K3">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="K2:K5" si="0">C3*H3</f>
         <v>4946.37</v>
       </c>
     </row>
@@ -1206,7 +1235,7 @@
         <v>30</v>
       </c>
       <c r="K6">
-        <f t="shared" ref="K5:K10" si="0">C6*H6</f>
+        <f t="shared" ref="K6:K10" si="0">C6*H6</f>
         <v>1669.0440000000001</v>
       </c>
     </row>

--- a/orcamentos/Shopping Mueller Joinville 2_asdasd.xlsx
+++ b/orcamentos/Shopping Mueller Joinville 2_asdasd.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\orcamentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43314432-6EC5-4D77-991F-8872A58B9C0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F6E48E-468C-45BD-9EBB-0BB5963D041C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="geral" sheetId="1" r:id="rId1"/>
     <sheet name="resultado" sheetId="5" r:id="rId2"/>
     <sheet name="cenarios" sheetId="4" r:id="rId3"/>
     <sheet name="Norte" sheetId="9" r:id="rId4"/>
-    <sheet name="Leste" sheetId="8" r:id="rId5"/>
-    <sheet name="Oeste" sheetId="7" r:id="rId6"/>
-    <sheet name="Centro" sheetId="6" r:id="rId7"/>
+    <sheet name="paraFilter" sheetId="10" r:id="rId5"/>
+    <sheet name="Leste" sheetId="8" r:id="rId6"/>
+    <sheet name="Oeste" sheetId="7" r:id="rId7"/>
+    <sheet name="Centro" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="43">
   <si>
     <t>id</t>
   </si>
@@ -165,6 +166,12 @@
   </si>
   <si>
     <t>Papai Noel com sino e estrela produzido em estrutura metálica e mangueira luminosa</t>
+  </si>
+  <si>
+    <t>Shopping</t>
+  </si>
+  <si>
+    <t>Contato 1</t>
   </si>
 </sst>
 </file>
@@ -487,7 +494,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
@@ -658,6 +665,67 @@
         <v>36</v>
       </c>
       <c r="J6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7">
+        <v>6</v>
+      </c>
+      <c r="I7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8">
+        <v>7</v>
+      </c>
+      <c r="I8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" t="s">
         <v>27</v>
       </c>
     </row>
@@ -744,7 +812,7 @@
   <sheetPr codeName="Planilha3"/>
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
@@ -857,7 +925,7 @@
         <v>30</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K2:K5" si="0">C3*H3</f>
+        <f t="shared" ref="K3:K5" si="0">C3*H3</f>
         <v>4946.37</v>
       </c>
     </row>
@@ -1011,6 +1079,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F40FEEEE-A95A-4D58-ACA1-12B623BE372B}">
+  <sheetPr codeName="Planilha8"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D57A584-7591-4878-9530-5854AA8DF859}">
   <sheetPr codeName="Planilha5"/>
   <dimension ref="A1:K10"/>
@@ -1388,7 +1471,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A997D96-DD52-4F81-A619-671BC5BF348C}">
   <sheetPr codeName="Planilha6"/>
   <dimension ref="A1:K7"/>
@@ -1655,7 +1738,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C5A3A87-FF1D-4E0C-A4EE-80945F76771E}">
   <sheetPr codeName="Planilha7"/>
   <dimension ref="A1:K5"/>

--- a/orcamentos/Shopping Mueller Joinville 2_asdasd.xlsx
+++ b/orcamentos/Shopping Mueller Joinville 2_asdasd.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\orcamentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F6E48E-468C-45BD-9EBB-0BB5963D041C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1381AABA-68BE-45DE-889D-5BEEF9706BFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="geral" sheetId="1" r:id="rId1"/>
@@ -812,7 +812,7 @@
   <sheetPr codeName="Planilha3"/>
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
@@ -1083,7 +1083,7 @@
   <sheetPr codeName="Planilha8"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
@@ -1669,7 +1669,7 @@
         <v>33</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1683,7 +1683,7 @@
       <c r="G6">
         <v>192</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="1">
         <v>834.52200000000005</v>
       </c>
       <c r="I6">
@@ -1693,8 +1693,8 @@
         <v>30</v>
       </c>
       <c r="K6">
-        <f t="shared" si="0"/>
-        <v>834.52200000000005</v>
+        <f>C6*H6</f>
+        <v>2503.5660000000003</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -1705,7 +1705,7 @@
         <v>32</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
         <v>31</v>
@@ -1719,7 +1719,7 @@
       <c r="G7">
         <v>224</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="1">
         <v>989.274</v>
       </c>
       <c r="I7">
@@ -1730,7 +1730,7 @@
       </c>
       <c r="K7">
         <f>C7*H7</f>
-        <v>4946.37</v>
+        <v>7914.192</v>
       </c>
     </row>
   </sheetData>

--- a/orcamentos/Shopping Mueller Joinville 2_asdasd.xlsx
+++ b/orcamentos/Shopping Mueller Joinville 2_asdasd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\orcamentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1381AABA-68BE-45DE-889D-5BEEF9706BFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB69CBB6-5E97-4A37-87AB-7844CD356486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -937,7 +937,7 @@
         <v>32</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
         <v>31</v>
@@ -951,7 +951,7 @@
       <c r="G4">
         <v>224</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="1">
         <v>989.274</v>
       </c>
       <c r="I4">
@@ -961,8 +961,8 @@
         <v>30</v>
       </c>
       <c r="K4">
-        <f t="shared" si="0"/>
-        <v>4946.37</v>
+        <f>C4*H4</f>
+        <v>7914.192</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -1585,7 +1585,7 @@
         <v>30</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K6" si="0">H3*C3</f>
+        <f t="shared" ref="K3:K5" si="0">H3*C3</f>
         <v>1669.0440000000001</v>
       </c>
     </row>

--- a/orcamentos/Shopping Mueller Joinville 2_asdasd.xlsx
+++ b/orcamentos/Shopping Mueller Joinville 2_asdasd.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr codeName="EstaPastaDeTrabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\orcamentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB69CBB6-5E97-4A37-87AB-7844CD356486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F1C27E-8C91-4198-8F37-E521E0C1CC5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="geral" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -172,6 +172,9 @@
   </si>
   <si>
     <t>Contato 1</t>
+  </si>
+  <si>
+    <t>Contato 2</t>
   </si>
 </sst>
 </file>
@@ -494,7 +497,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
@@ -726,6 +729,70 @@
         <v>36</v>
       </c>
       <c r="J8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9">
+        <v>38</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9">
+        <v>8</v>
+      </c>
+      <c r="I9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10">
+        <v>9</v>
+      </c>
+      <c r="I10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10" t="s">
         <v>27</v>
       </c>
     </row>
@@ -810,7 +877,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2787B949-035F-476D-AB38-D13F8B071F80}">
   <sheetPr codeName="Planilha3"/>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
@@ -915,7 +982,7 @@
       <c r="G3">
         <v>224</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
         <v>989.274</v>
       </c>
       <c r="I3">
@@ -925,7 +992,7 @@
         <v>30</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K5" si="0">C3*H3</f>
+        <f>C3*H3</f>
         <v>4946.37</v>
       </c>
     </row>
@@ -997,7 +1064,7 @@
         <v>30</v>
       </c>
       <c r="K5">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="K5" si="0">C5*H5</f>
         <v>1669.0440000000001</v>
       </c>
     </row>
@@ -1071,6 +1138,114 @@
       <c r="K7">
         <f>C7*H7</f>
         <v>4946.37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8">
+        <v>192</v>
+      </c>
+      <c r="H8">
+        <v>834.52200000000005</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8">
+        <f>C8*H8</f>
+        <v>1669.0440000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9">
+        <v>224</v>
+      </c>
+      <c r="H9">
+        <v>989.274</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9">
+        <f>C9*H9</f>
+        <v>2967.8220000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10">
+        <v>192</v>
+      </c>
+      <c r="H10">
+        <v>834.52200000000005</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10">
+        <f>C10*H10</f>
+        <v>1669.0440000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1096,7 +1271,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D57A584-7591-4878-9530-5854AA8DF859}">
   <sheetPr codeName="Planilha5"/>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
@@ -1246,7 +1421,7 @@
         <v>30</v>
       </c>
       <c r="K4">
-        <f>C4*H4</f>
+        <f t="shared" ref="K4" si="0">C4*H4</f>
         <v>1669.0440000000001</v>
       </c>
     </row>
@@ -1272,7 +1447,7 @@
       <c r="G5">
         <v>848</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5">
         <v>4150.9260000000004</v>
       </c>
       <c r="I5">
@@ -1284,186 +1459,6 @@
       <c r="K5">
         <f>C5*H5</f>
         <v>12452.778000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6">
-        <v>192</v>
-      </c>
-      <c r="H6">
-        <v>834.52200000000005</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6">
-        <f t="shared" ref="K6:K10" si="0">C6*H6</f>
-        <v>1669.0440000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7">
-        <v>192</v>
-      </c>
-      <c r="H7">
-        <v>834.52200000000005</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="0"/>
-        <v>1669.0440000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8">
-        <v>192</v>
-      </c>
-      <c r="H8">
-        <v>834.52200000000005</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8" t="s">
-        <v>30</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="0"/>
-        <v>1669.0440000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9">
-        <v>224</v>
-      </c>
-      <c r="H9">
-        <v>989.274</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9" t="s">
-        <v>30</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="0"/>
-        <v>4946.37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10">
-        <v>192</v>
-      </c>
-      <c r="H10">
-        <v>834.52200000000005</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10" t="s">
-        <v>30</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="0"/>
-        <v>1669.0440000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1474,7 +1469,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A997D96-DD52-4F81-A619-671BC5BF348C}">
   <sheetPr codeName="Planilha6"/>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
@@ -1525,7 +1520,7 @@
         <v>33</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1539,7 +1534,7 @@
       <c r="G2">
         <v>192</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2">
         <v>834.52200000000005</v>
       </c>
       <c r="I2">
@@ -1549,8 +1544,8 @@
         <v>30</v>
       </c>
       <c r="K2">
-        <f>H2*C2</f>
-        <v>834.52200000000005</v>
+        <f t="shared" ref="K2:K4" si="0">H2*C2</f>
+        <v>1669.0440000000001</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -1561,7 +1556,7 @@
         <v>33</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1575,7 +1570,7 @@
       <c r="G3">
         <v>192</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
         <v>834.52200000000005</v>
       </c>
       <c r="I3">
@@ -1585,8 +1580,8 @@
         <v>30</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K5" si="0">H3*C3</f>
-        <v>1669.0440000000001</v>
+        <f>C3*H3</f>
+        <v>2503.5660000000003</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -1597,7 +1592,7 @@
         <v>33</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1611,7 +1606,7 @@
       <c r="G4">
         <v>192</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4">
         <v>834.52200000000005</v>
       </c>
       <c r="I4">
@@ -1621,8 +1616,8 @@
         <v>30</v>
       </c>
       <c r="K4">
-        <f>C4*H4</f>
-        <v>2503.5660000000003</v>
+        <f t="shared" si="0"/>
+        <v>1669.0440000000001</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -1630,13 +1625,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
       </c>
       <c r="E5" t="s">
         <v>28</v>
@@ -1645,10 +1640,10 @@
         <v>29</v>
       </c>
       <c r="G5">
-        <v>192</v>
-      </c>
-      <c r="H5">
-        <v>834.52200000000005</v>
+        <v>224</v>
+      </c>
+      <c r="H5" s="1">
+        <v>989.274</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1657,79 +1652,7 @@
         <v>30</v>
       </c>
       <c r="K5">
-        <f t="shared" si="0"/>
-        <v>1669.0440000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6">
-        <v>192</v>
-      </c>
-      <c r="H6" s="1">
-        <v>834.52200000000005</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6">
-        <f>C6*H6</f>
-        <v>2503.5660000000003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7">
-        <v>224</v>
-      </c>
-      <c r="H7" s="1">
-        <v>989.274</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K7">
-        <f>C7*H7</f>
+        <f>C5*H5</f>
         <v>7914.192</v>
       </c>
     </row>
@@ -1741,7 +1664,7 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C5A3A87-FF1D-4E0C-A4EE-80945F76771E}">
   <sheetPr codeName="Planilha7"/>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K2" sqref="K2:K6"/>
@@ -1816,7 +1739,7 @@
         <v>30</v>
       </c>
       <c r="K2">
-        <f>C2*H2</f>
+        <f t="shared" ref="K2:K7" si="0">C2*H2</f>
         <v>2967.8220000000001</v>
       </c>
     </row>
@@ -1852,7 +1775,7 @@
         <v>30</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K5" si="0">H3*C3</f>
+        <f t="shared" si="0"/>
         <v>1669.0440000000001</v>
       </c>
     </row>
@@ -1897,13 +1820,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
       </c>
       <c r="E5" t="s">
         <v>28</v>
@@ -1912,10 +1835,10 @@
         <v>29</v>
       </c>
       <c r="G5">
-        <v>192</v>
+        <v>224</v>
       </c>
       <c r="H5">
-        <v>834.52200000000005</v>
+        <v>989.274</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1925,7 +1848,223 @@
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
+        <v>4946.37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6">
+        <v>192</v>
+      </c>
+      <c r="H6">
         <v>834.52200000000005</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>1669.0440000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7">
+        <v>192</v>
+      </c>
+      <c r="H7">
+        <v>834.52200000000005</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>1669.0440000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8">
+        <v>192</v>
+      </c>
+      <c r="H8">
+        <v>834.52200000000005</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8">
+        <f>C8*H8</f>
+        <v>4172.6100000000006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9">
+        <v>192</v>
+      </c>
+      <c r="H9">
+        <v>834.52200000000005</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9">
+        <f>C9*H9</f>
+        <v>834.52200000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10">
+        <v>192</v>
+      </c>
+      <c r="H10">
+        <v>834.52200000000005</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10">
+        <f>C10*H10</f>
+        <v>1669.0440000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11">
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11">
+        <v>192</v>
+      </c>
+      <c r="H11" s="1">
+        <v>834.52200000000005</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11">
+        <f>C11*H11</f>
+        <v>6676.1760000000004</v>
       </c>
     </row>
   </sheetData>

--- a/orcamentos/Shopping Mueller Joinville 2_asdasd.xlsx
+++ b/orcamentos/Shopping Mueller Joinville 2_asdasd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\orcamentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F1C27E-8C91-4198-8F37-E521E0C1CC5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445ADC6D-7436-4EA0-B716-65E30A676114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="52">
   <si>
     <t>id</t>
   </si>
@@ -175,6 +175,30 @@
   </si>
   <si>
     <t>Contato 2</t>
+  </si>
+  <si>
+    <t>AD02</t>
+  </si>
+  <si>
+    <t>1,71</t>
+  </si>
+  <si>
+    <t>Sagrada Família, produzido em alumínio e pintura branca</t>
+  </si>
+  <si>
+    <t>AD09</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>0,5</t>
+  </si>
+  <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>Rena aramada, produzido em alumínio e pintura, com detalhes em LED. Branco</t>
   </si>
 </sst>
 </file>
@@ -877,7 +901,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2787B949-035F-476D-AB38-D13F8B071F80}">
   <sheetPr codeName="Planilha3"/>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
@@ -1100,7 +1124,7 @@
         <v>30</v>
       </c>
       <c r="K6">
-        <f>C6*H6</f>
+        <f t="shared" ref="K6:K11" si="1">C6*H6</f>
         <v>4946.37</v>
       </c>
     </row>
@@ -1136,7 +1160,7 @@
         <v>30</v>
       </c>
       <c r="K7">
-        <f>C7*H7</f>
+        <f t="shared" si="1"/>
         <v>4946.37</v>
       </c>
     </row>
@@ -1172,7 +1196,7 @@
         <v>30</v>
       </c>
       <c r="K8">
-        <f>C8*H8</f>
+        <f t="shared" si="1"/>
         <v>1669.0440000000001</v>
       </c>
     </row>
@@ -1208,7 +1232,7 @@
         <v>30</v>
       </c>
       <c r="K9">
-        <f>C9*H9</f>
+        <f t="shared" si="1"/>
         <v>2967.8220000000001</v>
       </c>
     </row>
@@ -1244,8 +1268,77 @@
         <v>30</v>
       </c>
       <c r="K10">
-        <f>C10*H10</f>
+        <f t="shared" si="1"/>
         <v>1669.0440000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="1">
+        <v>5937.4224000000004</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
+        <v>46</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>17812.267200000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12">
+        <v>70</v>
+      </c>
+      <c r="H12" s="1">
+        <v>4549.9895999999999</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
+        <v>51</v>
+      </c>
+      <c r="K12">
+        <f>C12*H12</f>
+        <v>13649.968799999999</v>
       </c>
     </row>
   </sheetData>

--- a/orcamentos/Shopping Mueller Joinville 2_asdasd.xlsx
+++ b/orcamentos/Shopping Mueller Joinville 2_asdasd.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr codeName="EstaPastaDeTrabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\orcamentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445ADC6D-7436-4EA0-B716-65E30A676114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16CFC86B-65B8-43CD-9A9C-6D61E66430F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="geral" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -199,6 +199,9 @@
   </si>
   <si>
     <t>Rena aramada, produzido em alumínio e pintura, com detalhes em LED. Branco</t>
+  </si>
+  <si>
+    <t>C:\GitHub\myxlsm\orcamentosParaClientes\OrcamentoGerado_Shopping Mueller Joinville 2.xlsx</t>
   </si>
 </sst>
 </file>
@@ -521,7 +524,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
@@ -539,7 +542,7 @@
     <col min="8" max="8" width="19.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -565,7 +568,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -585,7 +588,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -611,7 +614,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -637,7 +640,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -666,7 +669,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -695,7 +698,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2</v>
       </c>
@@ -724,7 +727,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2</v>
       </c>
@@ -756,7 +759,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2</v>
       </c>
@@ -788,7 +791,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2</v>
       </c>
@@ -818,6 +821,9 @@
       </c>
       <c r="J10" t="s">
         <v>27</v>
+      </c>
+      <c r="K10" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
